--- a/wash_P/IND.xlsx
+++ b/wash_P/IND.xlsx
@@ -73823,7 +73823,7 @@
         <v>0</v>
       </c>
       <c r="AEZ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFA23" t="n">
         <v>0</v>
@@ -76951,7 +76951,7 @@
         <v>0</v>
       </c>
       <c r="AEZ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFA24" t="n">
         <v>0</v>
@@ -83093,7 +83093,7 @@
         <v>0</v>
       </c>
       <c r="ADN26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADO26" t="n">
         <v>0</v>
@@ -86221,7 +86221,7 @@
         <v>0</v>
       </c>
       <c r="ADN27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADO27" t="n">
         <v>0</v>
@@ -92477,7 +92477,7 @@
         <v>0</v>
       </c>
       <c r="ADN29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADO29" t="n">
         <v>0</v>
